--- a/data/Publisher.xlsx
+++ b/data/Publisher.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/fricke_59_buckeyemail_osu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdfricke\DataGripProjects\BitsNBooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{787C9BC9-F731-4EB7-8372-B2580B634597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F685EA0-8571-42E0-B60A-03ED880BFCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{1E04454D-2DC2-4C7F-9EFF-4D8752F329AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E04454D-2DC2-4C7F-9EFF-4D8752F329AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,15 +596,15 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -639,11 +640,11 @@
       <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2">
-        <v>1112223333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F2" s="2">
+        <v>3302223333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -659,11 +660,11 @@
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3">
-        <v>1112223334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F3" s="2">
+        <v>2162223334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -679,11 +680,11 @@
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4">
-        <v>1112223335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F4" s="2">
+        <v>3302223335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -699,11 +700,11 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5">
-        <v>1112223336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F5" s="2">
+        <v>2162223336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -719,11 +720,11 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6">
-        <v>1112223337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F6" s="2">
+        <v>6142223337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -739,11 +740,11 @@
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
-        <v>1112223338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F7" s="2">
+        <v>6142223338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -759,11 +760,11 @@
       <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1112223339</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -779,11 +780,11 @@
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>1112223330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -799,11 +800,11 @@
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>2112223333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -819,11 +820,11 @@
       <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>2322223333</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -839,11 +840,11 @@
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>1122223333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -859,11 +860,11 @@
       <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>2224445555</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -879,11 +880,11 @@
       <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>1123456789</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -899,11 +900,11 @@
       <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F15">
-        <v>1004560000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F15" s="2">
+        <v>6194560550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -919,11 +920,11 @@
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>1004560001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -939,11 +940,11 @@
       <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>1004560002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -959,11 +960,11 @@
       <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18">
-        <v>1004560003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F18" s="2">
+        <v>2144560003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -979,11 +980,11 @@
       <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F19">
-        <v>1004560004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="F19" s="2">
+        <v>2214560004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -999,11 +1000,11 @@
       <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>1004560005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1019,8 +1020,8 @@
       <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21">
-        <v>1004560006</v>
+      <c r="F21" s="2">
+        <v>2924560006</v>
       </c>
     </row>
   </sheetData>
